--- a/Bruniera/linguaggi e compilatori/progetto/parteA/tabella3.xlsx
+++ b/Bruniera/linguaggi e compilatori/progetto/parteA/tabella3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>st\la</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">print "Unexpected {lookahead} "; skip lookahead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print "Missing comma"; pop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print "Cannot use {lookahead} in predicate"; remove until ", ) and or $" excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print "Missing expression"; pop; pop</t>
   </si>
   <si>
     <t xml:space="preserve">print "Missing )"; pop</t>
@@ -151,18 +142,17 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,31 +723,31 @@
       <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
         <v>2</v>
       </c>
       <c r="N2" s="4">
@@ -769,40 +759,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5">
-        <v>7</v>
-      </c>
-      <c r="K3" s="5">
-        <v>7</v>
-      </c>
-      <c r="L3" s="5">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4</v>
       </c>
       <c r="N3" s="4">
         <v>1</v>
@@ -812,7 +802,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4">
@@ -856,39 +846,39 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>5</v>
+      <c r="B5" s="4">
+        <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
@@ -898,16 +888,16 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -916,22 +906,22 @@
       <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
         <v>2</v>
       </c>
       <c r="N6" s="4">
@@ -942,7 +932,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4">
@@ -960,25 +950,25 @@
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5">
-        <v>2</v>
-      </c>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -986,22 +976,22 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1022,7 +1012,7 @@
       <c r="M8" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1030,25 +1020,25 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
         <v>2</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1057,16 +1047,16 @@
       <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>2</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1074,28 +1064,28 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -1110,7 +1100,7 @@
       <c r="M10" s="4">
         <v>2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1118,31 +1108,31 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
         <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1154,7 +1144,7 @@
       <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1162,7 +1152,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="4">
@@ -1198,7 +1188,7 @@
       <c r="M12" s="4">
         <v>2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1206,43 +1196,43 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
         <v>2</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1294,109 +1284,105 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="8">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="7">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="8">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Bruniera/linguaggi e compilatori/progetto/parteA/tabella3.xlsx
+++ b/Bruniera/linguaggi e compilatori/progetto/parteA/tabella3.xlsx
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="14.25">

--- a/Bruniera/linguaggi e compilatori/progetto/parteA/tabella3.xlsx
+++ b/Bruniera/linguaggi e compilatori/progetto/parteA/tabella3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>st\la</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>acc</t>
+  </si>
+  <si>
+    <t>halt</t>
   </si>
   <si>
     <t>Errori</t>
@@ -79,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -97,6 +100,12 @@
       <b/>
       <sz val="14.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -151,7 +160,8 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -665,6 +675,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.8515625"/>
+    <col customWidth="1" min="2" max="9" width="5.00390625"/>
+    <col customWidth="1" min="10" max="10" width="4.8515625"/>
+    <col customWidth="1" min="11" max="11" width="6.140625"/>
+    <col customWidth="1" min="12" max="13" width="4.00390625"/>
+    <col customWidth="1" min="14" max="14" width="4.28125"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75">
       <c r="A1" s="1" t="s">
@@ -1277,12 +1295,12 @@
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1297,92 +1315,117 @@
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
